--- a/Documentation/TARGET/ghpi_shield_stückliste.xlsx
+++ b/Documentation/TARGET/ghpi_shield_stückliste.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C13CF3-8180-4553-82BA-3067D7EBA30E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C1523F-E28D-419D-BE7D-E61F1DC342A0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>; Datum=09.Juni.2018  11:31</t>
   </si>
@@ -158,9 +158,6 @@
     <t>R1</t>
   </si>
   <si>
-    <t>330</t>
-  </si>
-  <si>
     <t>0207_MET</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>R2</t>
   </si>
   <si>
-    <t>330</t>
-  </si>
-  <si>
     <t>0207_MET</t>
   </si>
   <si>
@@ -182,9 +176,6 @@
     <t>R3</t>
   </si>
   <si>
-    <t>330</t>
-  </si>
-  <si>
     <t>0207_MET</t>
   </si>
   <si>
@@ -194,9 +185,6 @@
     <t>R4</t>
   </si>
   <si>
-    <t>10K</t>
-  </si>
-  <si>
     <t>0207_MET</t>
   </si>
   <si>
@@ -206,9 +194,6 @@
     <t>R5</t>
   </si>
   <si>
-    <t>10K</t>
-  </si>
-  <si>
     <t>0207_MET</t>
   </si>
   <si>
@@ -218,13 +203,16 @@
     <t>R6</t>
   </si>
   <si>
-    <t>10K</t>
-  </si>
-  <si>
     <t>0207_MET</t>
   </si>
   <si>
     <t>; Autor=Rico Schulz</t>
+  </si>
+  <si>
+    <t>330 Ohm</t>
+  </si>
+  <si>
+    <t>10 kOhm</t>
   </si>
 </sst>
 </file>
@@ -603,27 +591,27 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.86328125" customWidth="1"/>
+    <col min="3" max="3" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -637,7 +625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -651,7 +639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -665,7 +653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -679,7 +667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -693,7 +681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -707,7 +695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -721,7 +709,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -735,7 +723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -749,7 +737,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -763,7 +751,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -777,7 +765,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -785,80 +773,80 @@
         <v>46</v>
       </c>
       <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
         <v>47</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>49</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
         <v>50</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>51</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>54</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
         <v>55</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>58</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
         <v>59</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B20" t="s">
         <v>61</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
